--- a/design/Collision.xlsx
+++ b/design/Collision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39D713-92D7-4438-BBD1-1F2050935D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF4032A-64F2-494F-BE0F-5EC3B0B22B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,6 +52,22 @@
   </si>
   <si>
     <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,10 +452,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -451,10 +463,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,13 +482,46 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
